--- a/草稿-数值推算.xlsx
+++ b/草稿-数值推算.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27990\Desktop\北风熔炉\数值文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901FBA1F-3D14-4882-BC86-0B02D0AD36B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3073C579-BF90-4706-AF52-8E470523FC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="B2:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/草稿-数值推算.xlsx
+++ b/草稿-数值推算.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3073C579-BF90-4706-AF52-8E470523FC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46557BA0-8F4A-475C-BCF1-1EFF8D0245C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
